--- a/Тест кейсы примеры.xlsx
+++ b/Тест кейсы примеры.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -772,21 +772,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1534,8 +1534,8 @@
     </row>
     <row r="3" spans="1:26" ht="183.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2082,14 +2082,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="51.65">
-      <c r="A22" s="57">
+    <row r="22" spans="1:26" ht="38.75">
+      <c r="A22" s="55">
         <v>1</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2123,9 +2123,9 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2152,9 +2152,9 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="78.8" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="16" t="s">
         <v>26</v>
       </c>
@@ -2186,13 +2186,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="64.55">
-      <c r="A25" s="57">
+      <c r="A25" s="55">
         <v>2</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -2226,9 +2226,9 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="38.75">
-      <c r="A26" s="58"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,9 +2258,9 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="51.65">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="19" t="s">
         <v>26</v>
       </c>
@@ -2290,13 +2290,13 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="25.85">
-      <c r="A28" s="57">
+      <c r="A28" s="55">
         <v>3</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="21" t="s">
@@ -2329,10 +2329,10 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="25.85">
-      <c r="A29" s="58"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
+    <row r="29" spans="1:26" ht="12.9">
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2362,9 +2362,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="51.65">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="19" t="s">
         <v>26</v>
       </c>
@@ -2394,10 +2394,10 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="12.9">
-      <c r="A31" s="57">
+      <c r="A31" s="55">
         <v>4</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1"/>
@@ -2430,8 +2430,8 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="51.65">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="25" t="s">
         <v>21</v>
       </c>
@@ -2464,8 +2464,8 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="12.9">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="29"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -2492,10 +2492,10 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A34" s="57">
+      <c r="A34" s="55">
         <v>5</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1"/>
@@ -2528,8 +2528,8 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="25" t="s">
         <v>21</v>
       </c>
@@ -2562,8 +2562,8 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="293.3" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="29"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -2590,10 +2590,10 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A37" s="57">
+      <c r="A37" s="55">
         <v>6</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="1"/>
@@ -2624,8 +2624,8 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="25" t="s">
         <v>21</v>
       </c>
@@ -2654,8 +2654,8 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="81" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="29"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -2682,10 +2682,10 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.95" customHeight="1">
-      <c r="A40" s="57">
+      <c r="A40" s="55">
         <v>7</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="1"/>
@@ -2720,8 +2720,8 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.8" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="25" t="s">
         <v>21</v>
       </c>
@@ -2750,8 +2750,8 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="81" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="29"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -2778,10 +2778,10 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="38.75">
-      <c r="A43" s="57">
+      <c r="A43" s="55">
         <v>8</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="1"/>
@@ -2816,8 +2816,8 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="25.85">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="25" t="s">
         <v>21</v>
       </c>
@@ -2850,8 +2850,8 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.9">
-      <c r="A45" s="59"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="29"/>
       <c r="D45" s="19" t="s">
         <v>26</v>
@@ -8752,6 +8752,19 @@
     <row r="1000" ht="15.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A28:A30"/>
@@ -8759,19 +8772,6 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
@@ -8788,8 +8788,8 @@
   </sheetPr>
   <dimension ref="A1:AA993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.95" customHeight="1"/>
@@ -8867,8 +8867,8 @@
     </row>
     <row r="3" spans="1:27" ht="156.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9454,7 +9454,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="38"/>
     </row>
-    <row r="22" spans="1:27" ht="90.35">
+    <row r="22" spans="1:27" ht="25.85">
       <c r="A22" s="40">
         <v>1</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="38"/>
     </row>
-    <row r="23" spans="1:27" ht="64.55">
+    <row r="23" spans="1:27" ht="25.85">
       <c r="A23" s="9">
         <v>2</v>
       </c>
@@ -9533,13 +9533,13 @@
       <c r="AA23" s="38"/>
     </row>
     <row r="24" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A24" s="57">
+      <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="45" t="s">
@@ -9572,9 +9572,9 @@
       <c r="AA24" s="38"/>
     </row>
     <row r="25" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="46"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -9601,9 +9601,9 @@
       <c r="AA25" s="38"/>
     </row>
     <row r="26" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="46"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -9630,13 +9630,13 @@
       <c r="AA26" s="38"/>
     </row>
     <row r="27" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A27" s="57">
+      <c r="A27" s="55">
         <v>4</v>
       </c>
       <c r="B27" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="45" t="s">
@@ -9669,9 +9669,9 @@
       <c r="AA27" s="38"/>
     </row>
     <row r="28" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="46"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -9698,9 +9698,9 @@
       <c r="AA28" s="38"/>
     </row>
     <row r="29" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="47"/>
       <c r="E29" s="37"/>
       <c r="F29" s="2"/>
@@ -9727,13 +9727,13 @@
       <c r="AA29" s="38"/>
     </row>
     <row r="30" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A30" s="57">
+      <c r="A30" s="55">
         <v>5</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="48" t="s">
@@ -9766,9 +9766,9 @@
       <c r="AA30" s="38"/>
     </row>
     <row r="31" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="50" t="s">
         <v>71</v>
       </c>
@@ -9798,9 +9798,9 @@
       <c r="AA31" s="38"/>
     </row>
     <row r="32" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="46"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -9827,13 +9827,13 @@
       <c r="AA32" s="38"/>
     </row>
     <row r="33" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A33" s="57">
+      <c r="A33" s="55">
         <v>6</v>
       </c>
       <c r="B33" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -9866,9 +9866,9 @@
       <c r="AA33" s="38"/>
     </row>
     <row r="34" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="46"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -9895,9 +9895,9 @@
       <c r="AA34" s="38"/>
     </row>
     <row r="35" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="47"/>
       <c r="E35" s="37"/>
       <c r="F35" s="2"/>
@@ -9924,13 +9924,13 @@
       <c r="AA35" s="38"/>
     </row>
     <row r="36" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A36" s="57">
+      <c r="A36" s="55">
         <v>7</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="48" t="s">
@@ -9963,9 +9963,9 @@
       <c r="AA36" s="38"/>
     </row>
     <row r="37" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="50" t="s">
         <v>71</v>
       </c>
@@ -9995,9 +9995,9 @@
       <c r="AA37" s="38"/>
     </row>
     <row r="38" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="46"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10024,13 +10024,13 @@
       <c r="AA38" s="38"/>
     </row>
     <row r="39" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A39" s="57">
+      <c r="A39" s="55">
         <v>8</v>
       </c>
       <c r="B39" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -10063,9 +10063,9 @@
       <c r="AA39" s="38"/>
     </row>
     <row r="40" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="46"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -10092,9 +10092,9 @@
       <c r="AA40" s="38"/>
     </row>
     <row r="41" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="47"/>
       <c r="E41" s="37"/>
       <c r="F41" s="2"/>
@@ -10121,13 +10121,13 @@
       <c r="AA41" s="38"/>
     </row>
     <row r="42" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A42" s="57">
+      <c r="A42" s="55">
         <v>9</v>
       </c>
       <c r="B42" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="53" t="s">
@@ -10158,9 +10158,9 @@
       <c r="AA42" s="38"/>
     </row>
     <row r="43" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="50" t="s">
         <v>83</v>
       </c>
@@ -10189,9 +10189,9 @@
       <c r="AA43" s="38"/>
     </row>
     <row r="44" spans="1:27" ht="15.8" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="50" t="s">
         <v>84</v>
       </c>
@@ -37744,12 +37744,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="A30:A32"/>
@@ -37759,13 +37760,12 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
